--- a/학습자료/단답형/한국사 남북한통일.xlsx
+++ b/학습자료/단답형/한국사 남북한통일.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -547,7 +547,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -607,7 +607,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -785,7 +785,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -815,7 +815,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -845,7 +845,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -905,7 +905,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -935,7 +935,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -963,7 +963,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -993,7 +993,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1023,7 +1023,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1081,7 +1081,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1111,7 +1111,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1141,7 +1141,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1231,7 +1231,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1261,7 +1261,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1291,7 +1291,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1351,7 +1351,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1381,7 +1381,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1411,7 +1411,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1441,7 +1441,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1501,7 +1501,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -1591,7 +1591,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -1651,7 +1651,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
